--- a/Team16Solution/Team16Solution/Data/Teachers.xlsx
+++ b/Team16Solution/Team16Solution/Data/Teachers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>First Name</t>
   </si>
@@ -54,6 +54,237 @@
   </si>
   <si>
     <t>Grade Taught</t>
+  </si>
+  <si>
+    <t>Mollie</t>
+  </si>
+  <si>
+    <t>Fussell</t>
+  </si>
+  <si>
+    <t>mollie.fussell@dysart.org</t>
+  </si>
+  <si>
+    <t>Shadow Ridge</t>
+  </si>
+  <si>
+    <t>DYSART</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Maricopa</t>
+  </si>
+  <si>
+    <t>9th-12th</t>
+  </si>
+  <si>
+    <t>Business/Economics</t>
+  </si>
+  <si>
+    <t>Edith</t>
+  </si>
+  <si>
+    <t>Jerome</t>
+  </si>
+  <si>
+    <t>ejerome@azdjc.gov</t>
+  </si>
+  <si>
+    <t>Adobe Mountain School</t>
+  </si>
+  <si>
+    <t>ADJC</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Robin.Blank@wesdschools.org</t>
+  </si>
+  <si>
+    <t>Sweet Water Elementary School</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>7th-8th</t>
+  </si>
+  <si>
+    <t>Gifted</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Greenfield</t>
+  </si>
+  <si>
+    <t>jkgreenfield@cox.net</t>
+  </si>
+  <si>
+    <t>Hoemschool</t>
+  </si>
+  <si>
+    <t>Chandler</t>
+  </si>
+  <si>
+    <t>8th-12th</t>
+  </si>
+  <si>
+    <t>Juliann</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>jtrump1776@gmail.com</t>
+  </si>
+  <si>
+    <t>Scottsdale</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>sjohnson74@cox.net</t>
+  </si>
+  <si>
+    <t>Maryvale High Schools</t>
+  </si>
+  <si>
+    <t>Phoenix Union</t>
+  </si>
+  <si>
+    <t>Business/Mathematics</t>
+  </si>
+  <si>
+    <t>Dona</t>
+  </si>
+  <si>
+    <t>dana.johnson@basised.com</t>
+  </si>
+  <si>
+    <t>Basis Scottsdale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basis  </t>
+  </si>
+  <si>
+    <t>Economics/Finance</t>
+  </si>
+  <si>
+    <t>Bobby</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>stavace2002@gmail.com</t>
+  </si>
+  <si>
+    <t>Country Gordon's Charder School</t>
+  </si>
+  <si>
+    <t>Laveen</t>
+  </si>
+  <si>
+    <t>History/S.S./Economics</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>jthompson@ccusd93.org</t>
+  </si>
+  <si>
+    <t>Cactus Shadows High School</t>
+  </si>
+  <si>
+    <t>Cave Creek</t>
+  </si>
+  <si>
+    <t>Finance Business</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>bobby.green@dvusd.org</t>
+  </si>
+  <si>
+    <t>Mountain Ridge High School</t>
+  </si>
+  <si>
+    <t>Deer Valley</t>
+  </si>
+  <si>
+    <t>Glendale</t>
+  </si>
+  <si>
+    <t>12th</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>lemiller@cguhsd.org</t>
+  </si>
+  <si>
+    <t>Vista Grande</t>
+  </si>
+  <si>
+    <t>Casa Grande Union</t>
+  </si>
+  <si>
+    <t>Casa Grande</t>
+  </si>
+  <si>
+    <t>Pinal</t>
+  </si>
+  <si>
+    <t>Marketing/DECA/Carrers</t>
+  </si>
+  <si>
+    <t>Wacinque</t>
+  </si>
+  <si>
+    <t>Bemende</t>
+  </si>
+  <si>
+    <t>wabrhino@hotmail.com</t>
+  </si>
+  <si>
+    <t>Homeschool</t>
+  </si>
+  <si>
+    <t>Tucson</t>
+  </si>
+  <si>
+    <t>Pima</t>
   </si>
 </sst>
 </file>
@@ -463,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="15.75"/>
@@ -511,6 +742,330 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
